--- a/scripts/flat-files/SailingPackages/SailingPackage.xlsx
+++ b/scripts/flat-files/SailingPackages/SailingPackage.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://celestyalepe.sharepoint.com/sites/CommercialExcellence-ToolingTech/Shared Documents/General/6. File_Share/Web Cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D29A593D-4B2C-409A-90ED-983BC91F7A41}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDBBEE09-35CD-497E-8318-3DF4FBBBCFC4}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$35</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
   <si>
     <t>PortFrom</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Required</t>
   </si>
   <si>
-    <t>ABU</t>
-  </si>
-  <si>
     <t>ABDF125</t>
   </si>
   <si>
@@ -162,6 +159,12 @@
   </si>
   <si>
     <t>S ADRIATIC AND IDYLLIC</t>
+  </si>
+  <si>
+    <t>ABD</t>
+  </si>
+  <si>
+    <t>7NARABIANICONDXB</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC35"/>
+  <dimension ref="A1:BC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,16 +586,16 @@
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -639,16 +642,16 @@
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -656,16 +659,16 @@
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,16 +676,16 @@
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -690,16 +693,16 @@
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -707,16 +710,16 @@
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -724,16 +727,16 @@
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -741,16 +744,16 @@
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -758,16 +761,16 @@
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -775,16 +778,16 @@
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -792,16 +795,16 @@
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -809,16 +812,16 @@
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -826,16 +829,16 @@
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -843,16 +846,16 @@
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -860,16 +863,16 @@
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -877,16 +880,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -894,16 +897,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -911,16 +914,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -928,16 +931,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -945,16 +948,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -962,16 +965,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -979,16 +982,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -996,16 +999,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1013,16 +1016,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1030,16 +1033,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1047,16 +1050,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1064,16 +1067,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1081,16 +1084,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1098,16 +1101,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1115,16 +1118,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1132,16 +1135,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1149,16 +1152,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1166,16 +1169,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1183,22 +1186,57 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1433,6 +1471,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
@@ -1441,15 +1488,6 @@
     <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1472,6 +1510,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1480,12 +1526,4 @@
     <ds:schemaRef ds:uri="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/scripts/flat-files/SailingPackages/SailingPackage.xlsx
+++ b/scripts/flat-files/SailingPackages/SailingPackage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://celestyalepe.sharepoint.com/sites/CommercialExcellence-ToolingTech/Shared Documents/General/6. File_Share/Web Cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDBBEE09-35CD-497E-8318-3DF4FBBBCFC4}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2048D997-CB23-4206-8202-13812C42077A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$34</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
   <si>
     <t>PortFrom</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Required</t>
   </si>
   <si>
+    <t>ABD</t>
+  </si>
+  <si>
     <t>ABDF125</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
     <t>ADRIATIC SUMMER</t>
   </si>
   <si>
-    <t>IDYLIC</t>
-  </si>
-  <si>
     <t>IDYLLIC26</t>
   </si>
   <si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>S ADRIATIC AND IDYLLIC</t>
-  </si>
-  <si>
-    <t>ABD</t>
   </si>
   <si>
     <t>7NARABIANICONDXB</t>
@@ -171,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,21 +550,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC37"/>
+  <dimension ref="A1:BC36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -584,18 +581,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -640,352 +637,352 @@
       <c r="AY2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -997,63 +994,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
         <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -1065,12 +1062,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -1082,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1093,18 +1090,18 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -1116,122 +1113,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37">
         <v>1</v>
       </c>
     </row>
@@ -1242,8 +1222,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9C8A73C1706E040BD7C6C99A3EBF51D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1bcee130c6762de85d515e75f4105b07">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8ccb410-e8f8-4e64-923b-36eaccbbdce1" xmlns:ns3="1f0d39c8-c576-416d-9b8e-2dcd71db641c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05fafce3023f9040902a165d4a8e3651" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9C8A73C1706E040BD7C6C99A3EBF51D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="40bc8acb866866a2ccd2b9c01873d4ff">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8ccb410-e8f8-4e64-923b-36eaccbbdce1" xmlns:ns3="1f0d39c8-c576-416d-9b8e-2dcd71db641c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7166d8a235fcebdc761b70d4b5317a5a" ns2:_="" ns3:_="">
     <xsd:import namespace="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
     <xsd:import namespace="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
     <xsd:element name="properties">
@@ -1470,60 +1470,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B601304E-8911-4988-A2D8-9B1FF4DED5D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
-    <ds:schemaRef ds:uri="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
-    <ds:schemaRef ds:uri="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47FE97D9-0A85-4335-80DA-22FEBFAA962D}"/>
 </file>
--- a/scripts/flat-files/SailingPackages/SailingPackage.xlsx
+++ b/scripts/flat-files/SailingPackages/SailingPackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://celestyalepe.sharepoint.com/sites/CommercialExcellence-ToolingTech/Shared Documents/General/6. File_Share/Web Cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2048D997-CB23-4206-8202-13812C42077A}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFF7B4B0-EA31-4551-89E2-5F364A162E0C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,10 +550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BC36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -581,7 +582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:55" hidden="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -637,7 +638,7 @@
       <c r="AY2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:55" hidden="1">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -654,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:55" hidden="1">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -671,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:55" hidden="1">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -688,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:55" hidden="1">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -705,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:55" hidden="1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -722,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:55" hidden="1">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -739,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:55" hidden="1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -756,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:55" hidden="1">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -773,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:55" hidden="1">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -790,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:55" hidden="1">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -807,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:55" hidden="1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -824,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:55" hidden="1">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -841,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:55" hidden="1">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -858,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:55" hidden="1">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -875,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -892,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -909,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -926,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1216,12 +1217,32 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E36" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="3N DESERT DAYS"/>
+        <filter val="4N DESERT DAYS"/>
+        <filter val="DESERT DAYS"/>
+        <filter val="DESERTDAYS26"/>
+        <filter val="DESERTDAYSDUBAI"/>
+        <filter val="DESERTDAYSDUBAI26"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
@@ -1230,15 +1251,6 @@
     <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1471,11 +1483,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/scripts/flat-files/SailingPackages/SailingPackage.xlsx
+++ b/scripts/flat-files/SailingPackages/SailingPackage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://celestyalepe.sharepoint.com/sites/CommercialExcellence-ToolingTech/Shared Documents/General/6. File_Share/Web Cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFF7B4B0-EA31-4551-89E2-5F364A162E0C}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4DF3EF0-ABBA-40F7-ADBD-201A201824FD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,22 +550,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -582,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:55" hidden="1">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -638,7 +637,7 @@
       <c r="AY2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" hidden="1">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -655,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" hidden="1">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -672,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:55" hidden="1">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -689,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" hidden="1">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -706,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" hidden="1">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -723,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:55" hidden="1">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -740,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:55" hidden="1">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -757,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55" hidden="1">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -774,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:55" hidden="1">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -791,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:55" hidden="1">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -808,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:55" hidden="1">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -825,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:55" hidden="1">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -842,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:55" hidden="1">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -859,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:55" hidden="1">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -876,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -893,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -910,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -927,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -944,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -961,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -978,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -995,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1029,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1217,18 +1216,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E36" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="3N DESERT DAYS"/>
-        <filter val="4N DESERT DAYS"/>
-        <filter val="DESERT DAYS"/>
-        <filter val="DESERTDAYS26"/>
-        <filter val="DESERTDAYSDUBAI"/>
-        <filter val="DESERTDAYSDUBAI26"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1243,17 +1231,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9C8A73C1706E040BD7C6C99A3EBF51D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="40bc8acb866866a2ccd2b9c01873d4ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8ccb410-e8f8-4e64-923b-36eaccbbdce1" xmlns:ns3="1f0d39c8-c576-416d-9b8e-2dcd71db641c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7166d8a235fcebdc761b70d4b5317a5a" ns2:_="" ns3:_="">
     <xsd:import namespace="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
@@ -1482,14 +1459,51 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47FE97D9-0A85-4335-80DA-22FEBFAA962D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
+    <ds:schemaRef ds:uri="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47FE97D9-0A85-4335-80DA-22FEBFAA962D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
+    <ds:schemaRef ds:uri="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/scripts/flat-files/SailingPackages/SailingPackage.xlsx
+++ b/scripts/flat-files/SailingPackages/SailingPackage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://celestyalepe.sharepoint.com/sites/CommercialExcellence-ToolingTech/Shared Documents/General/6. File_Share/Web Cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4DF3EF0-ABBA-40F7-ADBD-201A201824FD}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A7E1793-D605-4D88-942A-CE8768B5A4F3}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,18 +553,18 @@
   <dimension ref="A1:BC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -637,7 +637,7 @@
       <c r="AY2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -807,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -991,10 +991,10 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1076,10 +1076,10 @@
         <v>34</v>
       </c>
       <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1093,10 +1093,10 @@
         <v>35</v>
       </c>
       <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>40</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1222,17 +1222,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9C8A73C1706E040BD7C6C99A3EBF51D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="40bc8acb866866a2ccd2b9c01873d4ff">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8ccb410-e8f8-4e64-923b-36eaccbbdce1" xmlns:ns3="1f0d39c8-c576-416d-9b8e-2dcd71db641c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7166d8a235fcebdc761b70d4b5317a5a" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9C8A73C1706E040BD7C6C99A3EBF51D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a3974984903a0842864f925c62976886">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8ccb410-e8f8-4e64-923b-36eaccbbdce1" xmlns:ns3="1f0d39c8-c576-416d-9b8e-2dcd71db641c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe56edcde43245da8c54a57d232cc70e" ns2:_="" ns3:_="">
     <xsd:import namespace="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
     <xsd:import namespace="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
     <xsd:element name="properties">
@@ -1459,6 +1450,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1471,39 +1471,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF95CF54-69E0-4DD9-B4A0-3D09A796D18A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47FE97D9-0A85-4335-80DA-22FEBFAA962D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
-    <ds:schemaRef ds:uri="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
-    <ds:schemaRef ds:uri="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
 </file>
--- a/scripts/flat-files/SailingPackages/SailingPackage.xlsx
+++ b/scripts/flat-files/SailingPackages/SailingPackage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://celestyalepe.sharepoint.com/sites/CommercialExcellence-ToolingTech/Shared Documents/General/6. File_Share/Web Cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A7E1793-D605-4D88-942A-CE8768B5A4F3}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD3C27CB-6C83-4C51-9BEA-F82A0CAEF3C4}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:BC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -561,7 +561,7 @@
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55">
@@ -1222,8 +1222,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9C8A73C1706E040BD7C6C99A3EBF51D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a3974984903a0842864f925c62976886">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8ccb410-e8f8-4e64-923b-36eaccbbdce1" xmlns:ns3="1f0d39c8-c576-416d-9b8e-2dcd71db641c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe56edcde43245da8c54a57d232cc70e" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9C8A73C1706E040BD7C6C99A3EBF51D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee0aab5accfab02ea1f430a064e9a759">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8ccb410-e8f8-4e64-923b-36eaccbbdce1" xmlns:ns3="1f0d39c8-c576-416d-9b8e-2dcd71db641c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48eb31dbb7594155fb6027d886920afd" ns2:_="" ns3:_="">
     <xsd:import namespace="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
     <xsd:import namespace="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
     <xsd:element name="properties">
@@ -1450,28 +1470,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF95CF54-69E0-4DD9-B4A0-3D09A796D18A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1479,5 +1479,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3958504B-749D-428A-A2D1-778D79B5C7D6}"/>
 </file>
--- a/scripts/flat-files/SailingPackages/SailingPackage.xlsx
+++ b/scripts/flat-files/SailingPackages/SailingPackage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://celestyalepe.sharepoint.com/sites/CommercialExcellence-ToolingTech/Shared Documents/General/6. File_Share/Web Cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD3C27CB-6C83-4C51-9BEA-F82A0CAEF3C4}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB1A4F4A-9BD3-4C63-AFAE-A28AADB58AA2}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:BC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1222,26 +1222,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9C8A73C1706E040BD7C6C99A3EBF51D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee0aab5accfab02ea1f430a064e9a759">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8ccb410-e8f8-4e64-923b-36eaccbbdce1" xmlns:ns3="1f0d39c8-c576-416d-9b8e-2dcd71db641c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48eb31dbb7594155fb6027d886920afd" ns2:_="" ns3:_="">
     <xsd:import namespace="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
@@ -1470,8 +1450,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3958504B-749D-428A-A2D1-778D79B5C7D6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1479,5 +1479,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3958504B-749D-428A-A2D1-778D79B5C7D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
 </file>
--- a/scripts/flat-files/SailingPackages/SailingPackage.xlsx
+++ b/scripts/flat-files/SailingPackages/SailingPackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://celestyalepe.sharepoint.com/sites/CommercialExcellence-ToolingTech/Shared Documents/General/6. File_Share/Web Cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB1A4F4A-9BD3-4C63-AFAE-A28AADB58AA2}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90F51E80-AB0D-482F-ACBD-6AA7DE52972E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
   <si>
     <t>PortFrom</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>7NARABIANICONDXB</t>
+  </si>
+  <si>
+    <t>DESERTDAYS27</t>
+  </si>
+  <si>
+    <t>DESERTDAYSDUBAI27</t>
   </si>
 </sst>
 </file>
@@ -550,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC36"/>
+  <dimension ref="A1:BC38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1215,6 +1221,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1222,6 +1262,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9C8A73C1706E040BD7C6C99A3EBF51D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee0aab5accfab02ea1f430a064e9a759">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8ccb410-e8f8-4e64-923b-36eaccbbdce1" xmlns:ns3="1f0d39c8-c576-416d-9b8e-2dcd71db641c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48eb31dbb7594155fb6027d886920afd" ns2:_="" ns3:_="">
     <xsd:import namespace="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
@@ -1450,28 +1510,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3958504B-749D-428A-A2D1-778D79B5C7D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1479,5 +1519,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3958504B-749D-428A-A2D1-778D79B5C7D6}"/>
 </file>
--- a/scripts/flat-files/SailingPackages/SailingPackage.xlsx
+++ b/scripts/flat-files/SailingPackages/SailingPackage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://celestyalepe.sharepoint.com/sites/CommercialExcellence-ToolingTech/Shared Documents/General/6. File_Share/Web Cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90F51E80-AB0D-482F-ACBD-6AA7DE52972E}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A85E1ED5-BBE5-4C0D-8620-AF3C5CA235AF}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,18 +559,18 @@
   <dimension ref="A1:BC38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -643,7 +643,7 @@
       <c r="AY2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1238,12 +1238,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1511,13 +1511,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
+    <ds:schemaRef ds:uri="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3958504B-749D-428A-A2D1-778D79B5C7D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3958504B-749D-428A-A2D1-778D79B5C7D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
+    <ds:schemaRef ds:uri="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/scripts/flat-files/SailingPackages/SailingPackage.xlsx
+++ b/scripts/flat-files/SailingPackages/SailingPackage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://celestyalepe.sharepoint.com/sites/CommercialExcellence-ToolingTech/Shared Documents/General/6. File_Share/Web Cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A85E1ED5-BBE5-4C0D-8620-AF3C5CA235AF}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1548244-5168-48C0-9C5A-278873112742}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,19 +558,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -643,7 +643,7 @@
       <c r="AY2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -997,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1082,10 +1082,10 @@
         <v>34</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1099,10 +1099,10 @@
         <v>35</v>
       </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1218,10 +1218,10 @@
         <v>40</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1262,17 +1262,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1281,7 +1270,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9C8A73C1706E040BD7C6C99A3EBF51D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee0aab5accfab02ea1f430a064e9a759">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8ccb410-e8f8-4e64-923b-36eaccbbdce1" xmlns:ns3="1f0d39c8-c576-416d-9b8e-2dcd71db641c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48eb31dbb7594155fb6027d886920afd" ns2:_="" ns3:_="">
     <xsd:import namespace="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
@@ -1510,40 +1499,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
-    <ds:schemaRef ds:uri="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3958504B-749D-428A-A2D1-778D79B5C7D6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3958504B-749D-428A-A2D1-778D79B5C7D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
-    <ds:schemaRef ds:uri="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
 </file>
--- a/scripts/flat-files/SailingPackages/SailingPackage.xlsx
+++ b/scripts/flat-files/SailingPackages/SailingPackage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://celestyalepe.sharepoint.com/sites/CommercialExcellence-ToolingTech/Shared Documents/General/6. File_Share/Web Cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1548244-5168-48C0-9C5A-278873112742}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="11_BC4EB32AFE82BCE1C851F3599A4DF0B49E5EEC3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FDC1F25-D581-42D5-BF9F-B6D2F3388EDA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
   <si>
     <t>PortFrom</t>
   </si>
@@ -59,9 +57,6 @@
     <t>ABD</t>
   </si>
   <si>
-    <t>ABDF125</t>
-  </si>
-  <si>
     <t>PIR</t>
   </si>
   <si>
@@ -168,25 +163,25 @@
   </si>
   <si>
     <t>DESERTDAYSDUBAI27</t>
+  </si>
+  <si>
+    <t>DESERTDAYS8N</t>
+  </si>
+  <si>
+    <t>7NARABIANICONICAUH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -217,11 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,99 +549,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="BC2" s="2"/>
-    </row>
-    <row r="3" spans="1:55">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -660,12 +614,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -677,12 +631,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -694,29 +648,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -728,9 +682,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -745,32 +699,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -779,15 +733,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -796,12 +750,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -813,15 +767,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -830,15 +784,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -847,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -855,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -864,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -872,7 +826,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -881,12 +835,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -898,12 +852,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -915,12 +869,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -932,12 +886,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -949,66 +903,66 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>7</v>
       </c>
       <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
       <c r="E23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -1017,15 +971,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -1034,46 +988,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -1085,32 +1039,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -1119,12 +1073,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>14</v>
@@ -1136,12 +1090,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>14</v>
@@ -1153,12 +1107,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>14</v>
@@ -1170,15 +1124,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
@@ -1187,29 +1141,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1221,12 +1175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1238,15 +1192,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>42</v>
@@ -1255,8 +1209,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1271,6 +1242,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9C8A73C1706E040BD7C6C99A3EBF51D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee0aab5accfab02ea1f430a064e9a759">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8ccb410-e8f8-4e64-923b-36eaccbbdce1" xmlns:ns3="1f0d39c8-c576-416d-9b8e-2dcd71db641c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48eb31dbb7594155fb6027d886920afd" ns2:_="" ns3:_="">
     <xsd:import namespace="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
@@ -1499,25 +1481,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8ccb410-e8f8-4e64-923b-36eaccbbdce1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1f0d39c8-c576-416d-9b8e-2dcd71db641c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5461E57B-1E5F-4E65-A945-C8A202A07209}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3958504B-749D-428A-A2D1-778D79B5C7D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D61AE56-39B0-4970-B18D-D4B1AB4585EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3958504B-749D-428A-A2D1-778D79B5C7D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d8ccb410-e8f8-4e64-923b-36eaccbbdce1"/>
+    <ds:schemaRef ds:uri="1f0d39c8-c576-416d-9b8e-2dcd71db641c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>